--- a/HaT7FptBook/wwwroot/Uploads/Book2.xlsx
+++ b/HaT7FptBook/wwwroot/Uploads/Book2.xlsx
@@ -1,42 +1,922 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E19CED-386F-47E4-9067-D4EF3360AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="297">
   <si>
     <t>https://salt.tikicdn.com/cache/200x200/ts/product/0e/28/ef/0b987bac37e360fff8044b1447da52ea.png.webp</t>
   </si>
   <si>
-    <t>Rừng Nauy</t>
-  </si>
-  <si>
-    <t>Hay, Buồn, Trầm cảm</t>
-  </si>
-  <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
-    <t>Food</t>
+    <t>Fundamentals of Wavelets</t>
+  </si>
+  <si>
+    <t>One of the other reviewers has mentioned that after watching just 1 Oz episode you'll be hooked. They are right, as this is exactly what happened with me.  The first thing that struck me about Oz was its brutality and unflinching scenes of violence, which set in right from the word GO. Tru</t>
+  </si>
+  <si>
+    <t>Goswami, Jaideva</t>
+  </si>
+  <si>
+    <t>signal_processing</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/51/74/f3/831d5248c02718b7415e97edf5f99de6.jpg.webp</t>
+  </si>
+  <si>
+    <t>Data Smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wonderful little production.   The filming technique is very unassuming- very old-time-BBC fashion and gives a comforting, and sometimes discomforting, sense of realism to the entire piece.   The actors are extremely well chosen- Michael Sheen not only "has got all the polari" </t>
+  </si>
+  <si>
+    <t>Foreman, John</t>
+  </si>
+  <si>
+    <t>data_science</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/5f/97/52/a53eb98af3927cc5b5aeb08efa58d483.jpg.webp</t>
+  </si>
+  <si>
+    <t>God Created the Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I thought this was a wonderful way to spend time on a too hot summer weekend, sitting in the air conditioned theater and watching a light-hearted comedy. The plot is simplistic, but the dialogue is witty and the characters are likable (even the well bread suspected serial killer). While some may be </t>
+  </si>
+  <si>
+    <t>Hawking, Stephen</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/2f/b5/4e/a8208e9019c8510e8a8eebe06f50299c.jpg.webp</t>
+  </si>
+  <si>
+    <t>Superfreakonomics</t>
+  </si>
+  <si>
+    <t>Basically there's a family where a little boy (Jake) thinks there's a zombie in his closet &amp; his parents are fighting all the time.  This movie is slower than a soap opera... and suddenly, Jake decides to become Rambo and kill the zombie.  OK, first of all when you're going to ma</t>
+  </si>
+  <si>
+    <t>Dubner, Stephen</t>
+  </si>
+  <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/5e/18/24/2a6154ba08df6ce6161c13f4303fa19e.jpg.webp</t>
+  </si>
+  <si>
+    <t>Orientalism</t>
+  </si>
+  <si>
+    <t>Petter Mattei's "Love in the Time of Money" is a visually stunning film to watch. Mr. Mattei offers us a vivid portrait about human relations. This is a movie that seems to be telling us what money, power and success do to people in the different situations we encounter.   This being a var</t>
+  </si>
+  <si>
+    <t>Said, Edward</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/65/74/fb/1e6ca7a2fa28d83667a8e50144e43d0d.jpg.webp</t>
+  </si>
+  <si>
+    <t>Nature of Statistical Learning Theory, The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probably my all-time favorite movie, a story of selflessness, sacrifice and dedication to a noble cause, but it's not preachy or boring. It just never gets old, despite my having seen it some 15 or more times in the last 25 years. Paul Lukas' performance brings tears to my eyes, and Bette Davis, in </t>
+  </si>
+  <si>
+    <t>Vapnik, Vladimir</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/7c/0d/6c/8fcbd6abc1ac716d07b3593f9b97f53b.jpg.webp</t>
+  </si>
+  <si>
+    <t>Integration of the Indian States</t>
+  </si>
+  <si>
+    <t>I sure would like to see a resurrection of a up dated Seahunt series with the tech they have today it would bring back the kid excitement in me.I grew up on black and white TV and Seahunt with Gunsmoke were my hero's every week.You have my vote for a comeback of a new sea hunt.We need a change of pa</t>
+  </si>
+  <si>
+    <t>Menon, V P</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/c9/e4/18/a9cfc425fa590c453f20307229804bb3.jpg.webp</t>
+  </si>
+  <si>
+    <t>Drunkard's Walk, The</t>
+  </si>
+  <si>
+    <t>This show was an amazing, fresh &amp; innovative idea in the 70's when it first aired. The first 7 or 8 years were brilliant, but things dropped off after that. By 1990, the show was not really funny anymore, and it's continued its decline further to the complete waste of time it is today.  It</t>
+  </si>
+  <si>
+    <t>Mlodinow, Leonard</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/200x200/ts/product/74/11/ff/6304c47fec56e6f0b2110be65af0c7c2.jpg.webp</t>
+  </si>
+  <si>
+    <t>Image Processing &amp; Mathematical Morphology</t>
+  </si>
+  <si>
+    <t>Encouraged by the positive comments about this film on here I was looking forward to watching this film. Bad mistake. I've seen 950+ films and this is truly one of the worst of them - it's awful in almost every way: editing, pacing, storyline, 'acting,' soundtrack (the film's only song - a lame coun</t>
+  </si>
+  <si>
+    <t>Shih, Frank</t>
+  </si>
+  <si>
+    <t>How to Think Like Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>If you like original gut wrenching laughter you will like this movie. If you are young or old then you will love this movie, hell even my mom liked it.  Great Camp!!!</t>
+  </si>
+  <si>
+    <t>Konnikova, Maria</t>
+  </si>
+  <si>
+    <t>psychology</t>
+  </si>
+  <si>
+    <t>Data Scientists at Work</t>
+  </si>
+  <si>
+    <t>Phil the Alien is one of those quirky films where the humour is based around the oddness of everything rather than actual punchlines.  At first it was very odd and pretty funny but as the movie progressed I didn't find the jokes or oddness funny anymore.  Its a low budget film (t</t>
+  </si>
+  <si>
+    <t>Sebastian Gutierrez</t>
+  </si>
+  <si>
+    <t>Slaughterhouse Five</t>
+  </si>
+  <si>
+    <t>I saw this movie when I was about 12 when it came out. I recall the scariest scene was the big bird eating men dangling helplessly from parachutes right out of the air. The horror. The horror.  As a young kid going to these cheesy B films on Saturday afternoons, I still was tired of the fo</t>
+  </si>
+  <si>
+    <t>Vonnegut, Kurt</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t>Birth of a Theorem</t>
+  </si>
+  <si>
+    <t>So im not a big fan of Boll's work but then again not many are. I enjoyed his movie Postal (maybe im the only one). Boll apparently bought the rights to use Far Cry long ago even before the game itself was even finsished.   People who have enjoyed killing mercs and infiltrating secret rese</t>
+  </si>
+  <si>
+    <t>Villani, Cedric</t>
+  </si>
+  <si>
+    <t>Structure &amp; Interpretation of Computer Programs</t>
+  </si>
+  <si>
+    <t>The cast played Shakespeare.  Shakespeare lost.  I appreciate that this is trying to bring Shakespeare to the masses, but why ruin something so good.  Is it because 'The Scottish Play' is my favorite Shakespeare? I do not know. What I do know is that a certain Rev Bowdl</t>
+  </si>
+  <si>
+    <t>Sussman, Gerald</t>
+  </si>
+  <si>
+    <t>computer_science</t>
+  </si>
+  <si>
+    <t>Age of Wrath, The</t>
+  </si>
+  <si>
+    <t>This a fantastic movie of three prisoners who become famous. One of the actors is george clooney and I'm not a fan but this roll is not bad. Another good thing about the movie is the soundtrack (The man of constant sorrow). I recommand this movie to everybody. Greetings Bart</t>
+  </si>
+  <si>
+    <t>Eraly, Abraham</t>
+  </si>
+  <si>
+    <t>Trial, The</t>
+  </si>
+  <si>
+    <t>Kind of drawn in by the erotic scenes, only to realize this was one of the most amateurish and unbelievable bits of film I've ever seen. Sort of like a high school film project. What was Rosanna Arquette thinking?? And what was with all those stock characters in that bizarre supposed Midwest town? P</t>
+  </si>
+  <si>
+    <t>Kafka, Frank</t>
+  </si>
+  <si>
+    <t>Statistical Decision Theory'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some films just simply should not be remade. This is one of them. In and of itself it is not a bad film. But it fails to capture the flavor and the terror of the 1963 film of the same title. Liam Neeson was excellent as he always is, and most of the cast holds up, with the exception of Owen Wilson, </t>
+  </si>
+  <si>
+    <t>Pratt, John</t>
+  </si>
+  <si>
+    <t>Data Mining Handbook</t>
+  </si>
+  <si>
+    <t>This movie made it into one of my top 10 most awful movies. Horrible.   There wasn't a continuous minute where there wasn't a fight with one monster or another. There was no chance for any character development, they were too busy running from one sword fight to another. I had no emotional</t>
+  </si>
+  <si>
+    <t>Nisbet, Robert</t>
+  </si>
+  <si>
+    <t>New Machiavelli, The</t>
+  </si>
+  <si>
+    <t>I remember this film,it was the first film i had watched at the cinema the picture was dark in places i was very nervous it was back in 74/75 my Dad took me my brother &amp; sister to Newbury cinema in Newbury Berkshire England. I recall the tigers and the lots of snow in the film also the appearance of</t>
+  </si>
+  <si>
+    <t>Wells, H. G.</t>
+  </si>
+  <si>
+    <t>Physics &amp; Philosophy</t>
+  </si>
+  <si>
+    <t>An awful film! It must have been up against some real stinkers to be nominated for the Golden Globe. They've taken the story of the first famous female Renaissance painter and mangled it beyond recognition. My complaint is not that they've taken liberties with the facts; if the story were good, that</t>
+  </si>
+  <si>
+    <t>Heisenberg, Werner</t>
+  </si>
+  <si>
+    <t>Making Software</t>
+  </si>
+  <si>
+    <t>After the success of Die Hard and it's sequels it's no surprise really that in the 1990s, a glut of 'Die Hard on a .....' movies cashed in on the wrong guy, wrong place, wrong time concept. That is what they did with Cliffhanger, Die Hard on a mountain just in time to rescue Sly 'Stop or My Mom Will</t>
+  </si>
+  <si>
+    <t>Oram, Andy</t>
+  </si>
+  <si>
+    <t>Analysis, Vol I</t>
+  </si>
+  <si>
+    <t>I had the terrible misfortune of having to view this "b-movie" in it's entirety.  All I have to say is--- save your time and money!!! This has got to be the worst b-movie of all time, it shouldn't even be called a b-movie, more like an f-movie! Because it fails in all aspects that make a g</t>
+  </si>
+  <si>
+    <t>Tao, Terence</t>
+  </si>
+  <si>
+    <t>Machine Learning for Hackers</t>
+  </si>
+  <si>
+    <t>What an absolutely stunning movie, if you have 2.5 hrs to kill, watch it, you won't regret it, it's too much fun! Rajnikanth carries the movie on his shoulders and although there isn't anything more other than him, I still liked it. The music by A.R.Rehman takes time to grow on you but after you hea</t>
+  </si>
+  <si>
+    <t>Conway, Drew</t>
+  </si>
+  <si>
+    <t>Signal and the Noise, The</t>
+  </si>
+  <si>
+    <t>First of all, let's get a few things straight here: a) I AM an anime fan- always has been as a matter of fact (I used to watch Speed Racer all the time in Preschool). b) I DO like several B-Movies because they're hilarious. c) I like the Godzilla movies- a lot.  Moving on, when the movie f</t>
+  </si>
+  <si>
+    <t>Silver, Nate</t>
+  </si>
+  <si>
+    <t>Python for Data Analysis</t>
+  </si>
+  <si>
+    <t>This was the worst movie I saw at WorldFest and it also received the least amount of applause afterwards! I can only think it is receiving such recognition based on the amount of known actors in the film. It's great to see J.Beals but she's only in the movie for a few minutes. M.Parker is a much bet</t>
+  </si>
+  <si>
+    <t>McKinney, Wes</t>
+  </si>
+  <si>
+    <t>Introduction to Algorithms</t>
+  </si>
+  <si>
+    <t>The Karen Carpenter Story shows a little more about singer Karen Carpenter's complex life. Though it fails in giving accurate facts, and details.  Cynthia Gibb (portrays Karen) was not a fine election. She is a good actress , but plays a very naive and sort of dumb Karen Carpenter. I think</t>
+  </si>
+  <si>
+    <t>Cormen, Thomas</t>
+  </si>
+  <si>
+    <t>Beautiful and the Damned, The</t>
+  </si>
+  <si>
+    <t>The Cell is an exotic masterpiece, a dizzying trip into not only the vast mind of a serial killer, but also into one of a very talented director. This is conclusive evidence of what can be achieved if human beings unleash their uninhibited imaginations. This is boldness at work, pushing aside thou</t>
+  </si>
+  <si>
+    <t>Deb, Siddhartha</t>
+  </si>
+  <si>
+    <t>nonfiction</t>
+  </si>
+  <si>
+    <t>Outsider, The</t>
+  </si>
+  <si>
+    <t>This film tried to be too many things all at once: stinging political satire, Hollywood blockbuster, sappy romantic comedy, family values promo... the list goes on and on. It failed miserably at all of them, but there was enough interest to keep me from turning it off until the end.  Altho</t>
+  </si>
+  <si>
+    <t>Camus, Albert</t>
+  </si>
+  <si>
+    <t>Complete Sherlock Holmes, The - Vol I</t>
+  </si>
+  <si>
+    <t>This movie was so frustrating. Everything seemed energetic and I was totally prepared to have a good time. I at least thought I'd be able to stand it. But, I was wrong. First, the weird looping? It was like watching "America's Funniest Home Videos". The damn parents. I hated them so much. The stereo</t>
+  </si>
+  <si>
+    <t>Doyle, Arthur Conan</t>
+  </si>
+  <si>
+    <t>Complete Sherlock Holmes, The - Vol II</t>
+  </si>
+  <si>
+    <t>'War movie' is a Hollywood genre that has been done and redone so many times that clichÃ©d dialogue, rehashed plot and over-the-top action sequences seem unavoidable for any conflict dealing with large-scale combat. Once in a while, however, a war movie comes along that goes against the grain and br</t>
+  </si>
+  <si>
+    <t>Wealth of Nations, The</t>
+  </si>
+  <si>
+    <t>Taut and organically gripping, Edward Dmytryk's Crossfire is a distinctive suspense thriller, an unlikely "message" movie using the look and devices of the noir cycle.  Bivouacked in Washington, DC, a company of soldiers cope with their restlessness by hanging out in bars. Three of them en</t>
+  </si>
+  <si>
+    <t>Smith, Adam</t>
+  </si>
+  <si>
+    <t>Pillars of the Earth, The</t>
+  </si>
+  <si>
+    <t>Ardh Satya is one of the finest film ever made in Indian Cinema. Directed by the great director Govind Nihalani, this one is the most successful Hard Hitting Parallel Cinema which also turned out to be a Commercial Success. Even today, Ardh Satya is an inspiration for all leading directors of Indi</t>
+  </si>
+  <si>
+    <t>Follett, Ken</t>
+  </si>
+  <si>
+    <t>Mein Kampf</t>
+  </si>
+  <si>
+    <t>My first exposure to the Templarios &amp; not a good one. I was excited to find this title among the offerings from Anchor Bay Video, which has brought us other cult classics such as "Spider Baby". The print quality is excellent, but this alone can't hide the fact that the film is deadly dull. There's a</t>
+  </si>
+  <si>
+    <t>Hitler, Adolf</t>
+  </si>
+  <si>
+    <t>Tao of Physics, The</t>
+  </si>
+  <si>
+    <t>One of the most significant quotes from the entire film is pronounced halfway through by the protagonist, the mafia middle-man Titta Di Girolamo, a physically non-descript, middle-aged man originally from Salerno in Southern Italy. When we're introduced to him at the start of the film, he's been liv</t>
+  </si>
+  <si>
+    <t>Capra, Fritjof</t>
+  </si>
+  <si>
+    <t>Surely You're Joking Mr Feynman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I watched this film not really expecting much, I got it in a pack of 5 films, all of which were pretty terrible in their own way for under a fiver so what could I expect? and you know what I was right, they were all terrible, this movie has a few (and a few is stretching it) interesting points, the </t>
+  </si>
+  <si>
+    <t>Feynman, Richard</t>
+  </si>
+  <si>
+    <t>Farewell to Arms, A</t>
+  </si>
+  <si>
+    <t>I bought this film at Blockbuster for $3.00, because it sounded interesting (a bit Ranma-esque, with the idea of someone dragging around a skeleton), because there was a cute girl in a mini-skirt on the back, and because there was a Restricted Viewing sticker on it. I thought it was going to be a sw</t>
+  </si>
+  <si>
+    <t>Hemingway, Ernest</t>
+  </si>
+  <si>
+    <t>Veteran, The</t>
+  </si>
+  <si>
+    <t>The plot is about the death of little children. Hopper is the one who has to investigate the killings. During the movie it appears that he has some troubles with his daughter. In the end the serial killer get caught. That's it. But before you find out who dunnit, you have to see some terrible acting</t>
+  </si>
+  <si>
+    <t>Forsyth, Frederick</t>
+  </si>
+  <si>
+    <t>False Impressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ever watched a movie that lost the plot? Well, this didn't even really have one to begin with.  Where to begin? The achingly tedious scenes of our heroine sitting around the house with actually no sense of menace or even foreboding created even during the apparently constant thunderstorms </t>
+  </si>
+  <si>
+    <t>Archer, Jeffery</t>
+  </si>
+  <si>
+    <t>Last Lecture, The</t>
+  </si>
+  <si>
+    <t>Okay, so this series kind of takes the route of 'here we go again!' Week in, week out David Morse's character helps out his ride who is in a bit of a pickle - but what's wrong with that!? David Morse is one of the greatest character actors out there, and certainly the coolest, and to have him in a s</t>
+  </si>
+  <si>
+    <t>Pausch, Randy</t>
+  </si>
+  <si>
+    <t>Return of the Primitive</t>
+  </si>
+  <si>
+    <t>After sitting through this pile of dung, my husband and I wondered whether it was actually the product of an experiment to see whether a computer program could produce a movie. It was that listless and formulaic. But the U.S. propaganda thrown in your face throughout the film proves--disappointingly</t>
+  </si>
+  <si>
+    <t>Rand, Ayn</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>It had all the clichÃ©s of movies of this type and no substance. The plot went nowhere and at the end of the movie I felt like a sucker for watching it. The production was good; however, the script and acting were B-movie quality. The casting was poor because there were good actors mixed in with cru</t>
+  </si>
+  <si>
+    <t>Crichton, Michael</t>
+  </si>
+  <si>
+    <t>Russian Journal, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This movie is based on the book, "A Many Splendored Thing" by Han Suyin and tackles issues of race relations between Asians and Whites, a topic that comes from Han's personal experiences as an Eurasian growing up in China. That background, and the beautiful Hong Kong settings, gives this love story </t>
+  </si>
+  <si>
+    <t>Steinbeck, John</t>
+  </si>
+  <si>
+    <t>Tales of Mystery and Imagination</t>
+  </si>
+  <si>
+    <t>Of all the films I have seen, this one, The Rage, has got to be one of the worst yet. The direction, LOGIC, continuity, changes in plot-script and dialog made me cry out in pain. "How could ANYONE come up with something so crappy"? Gary Busey is know for his "B" movies, but this is a sure "W" movie.</t>
+  </si>
+  <si>
+    <t>Poe, Edgar Allen</t>
+  </si>
+  <si>
+    <t>Freakonomics</t>
+  </si>
+  <si>
+    <t>I had heard good things about "States of Grace" and came in with an open mind. I thought that "God's Army" was okay, and I thought that maybe Dutcher had improved and matured as a filmmaker. The film began with some shaky acting, and I thought, "well, maybe it will get better." Unfortunately, it nev</t>
+  </si>
+  <si>
+    <t>Hidden Connections, The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This movie struck home for me. Being 29, I remember the '80's and my father working in a factory. I figured, if I worked hard too, if I had pride and never gave up I too could have the American Dream, the house, a few kids, a car all to call my own. I've noted however, without a degree in something </t>
+  </si>
+  <si>
+    <t>Story of Philosophy, The</t>
+  </si>
+  <si>
+    <t>As a disclaimer, I've seen the movie 5-6 times in the last 15 years, and I only just saw the musical this week. This allowed me to judge the movie without being tainted by what was or wasn't in the musical (however, it tainted me when I watched the musical :) )   I actually believe Michael</t>
+  </si>
+  <si>
+    <t>Durant, Will</t>
+  </si>
+  <si>
+    <t>Asami Asami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol is an implausible movie whose only saving grace is that it stars Goldie Hawn along with a good cast of supporting actors. The story revolves around a ditzy cocktail waitress who becomes famous after inadvertently saving the life of an Arab dignitary. The story goes downhill halfway through </t>
+  </si>
+  <si>
+    <t>Deshpande, P L</t>
+  </si>
+  <si>
+    <t>Journal of a Novel</t>
+  </si>
+  <si>
+    <t>How this film could be classified as Drama, I have no idea. If I were John Voight and Mary Steenburgen, I would be trying to erase this from my CV. It was as historically accurate as Xena and Hercules. Abraham and Moses got melded into Noah. Lot, Abraham's nephew, Lot, turns up thousands of years be</t>
+  </si>
+  <si>
+    <t>Once There Was a War</t>
+  </si>
+  <si>
+    <t>Preston Sturgis' THE POWER AND THE GLORY was unseen by the public for nearly twenty or thirty years until the late 1990s when it resurfaced and even showed up on television. In the meantime it had gained in notoriety because Pauline Kael's THE CITIZEN KANE BOOK had suggested that the Herman Mankiewi</t>
+  </si>
+  <si>
+    <t>Moon is Down, The</t>
+  </si>
+  <si>
+    <t>Average (and surprisingly tame) Fulci giallo which means it's still quite bad by normal standards, but redeemed by its solid build-up and some nice touches such as a neat time twist on the issues of visions and clairvoyance.  The genre's well-known weaknesses are in full gear: banal dialog</t>
+  </si>
+  <si>
+    <t>Brethren, The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the 36th Chamber is one of those classic Kung-Fu movies which Shaw produces back in the 70s and 80s, whose genre is equivalent to the spaghetti westerns of Hollywood, and the protagonist Gordon Liu, the counterpart to the western's Clint Eastwood. Digitally remastered and a new print made </t>
+  </si>
+  <si>
+    <t>Grisham, John</t>
+  </si>
+  <si>
+    <t>In a Free State</t>
+  </si>
+  <si>
+    <t>***SPOILERS*** All too, in real life as well as in the movies, familiar story that happens to many young men who are put in a war zone with a gun, or rifle, in their hands. The case of young and innocent, in never handling or firing a gun, Jimmy Davis, Franchot Tone, has been repeated thousands of t</t>
+  </si>
+  <si>
+    <t>Naipaul, V. S.</t>
+  </si>
+  <si>
+    <t>Catch 22</t>
+  </si>
+  <si>
+    <t>Bela Lugosi appeared in several of these low budget chillers for Monogram Studios in the 1940's and The Corpse Vanishes is one of the better ones.  Bela plays a mad scientist who kidnaps young brides and kills them and then extracts fluid from their bodies so he can keep his ageing wife lo</t>
+  </si>
+  <si>
+    <t>Heller, Joseph</t>
+  </si>
+  <si>
+    <t>Complete Mastermind, The</t>
+  </si>
+  <si>
+    <t>I cannot believe I enjoyed this as much as I did. The anthology stories were better than par, but the linking story and its surprise ending hooked me. Alot of familiar faces will keep you asking yourself "where I have I seen them before?" Forget the running time listed on New Line's tape, this ain't</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
+    <t>Dylan on Dylan</t>
+  </si>
+  <si>
+    <t>The 33 percent of the nations nitwits that still support W. Bush would do well to see this movie, which shows the aftermath of the French revolution and the terror of 1794 as strikingly similar to the post 9/11 socio-political landscape. Maybe then they could stop worrying about saving face and take</t>
+  </si>
+  <si>
+    <t>Dylan, Bob</t>
+  </si>
+  <si>
+    <t>Soft Computing &amp; Intelligent Systems</t>
+  </si>
+  <si>
+    <t>As someone has already mentioned on this board, it's very difficult to make a fake documentary. It requires tremendous skill, pacing, patience, directorial 'distance,' a plausible premise, a narrative 'flow,' and REALLY believable acting (aka GREAT acting).   Such is not the case with 'Lov</t>
+  </si>
+  <si>
+    <t>Gupta, Madan</t>
+  </si>
+  <si>
+    <t>Textbook of Economic Theory</t>
+  </si>
+  <si>
+    <t>The Hills Have Eyes II is what you would expect it to be and nothing more. Of course it's not going to be an Oscar nominated film, it's just pure entertainment which you can just lose yourself in for 90 minutes.  The plot is basically about a group of National Guard trainees who find thems</t>
+  </si>
+  <si>
+    <t>Stonier, Alfred</t>
+  </si>
+  <si>
+    <t>Econometric Analysis</t>
+  </si>
+  <si>
+    <t>I laughed all the way through this rotten movie. It's so unbelievable. A woman leaves her husband after many years of marriage, has a breakdown in front of a real estate office. What happens? The office manager comes outside and offers her a job!!! Hilarious! Next thing you know the two women are go</t>
+  </si>
+  <si>
+    <t>Greene, W. H.</t>
+  </si>
+  <si>
+    <t>Learning OpenCV</t>
+  </si>
+  <si>
+    <t>NO SPOILERS!!  After Hitchcock's successful first American film, Rebecca based upon Daphne DuMarier's lush novel of gothic romance and intrigue, he returned to some of the more familiar themes of his early British period - mistaken identity and espionage. As the U.S. settled into World War</t>
+  </si>
+  <si>
+    <t>Bradsky, Gary</t>
+  </si>
+  <si>
+    <t>Data Structures Using C &amp; C++</t>
+  </si>
+  <si>
+    <t>I just watched The Dresser this evening, having only seen it once before, about a dozen years ago.  It's not a "big" movie, and doesn't try to make a big splash, but my God, the brilliance of the two leads leaves me just about speechless. Albert Finney and Tom Courtenay are nothing less th</t>
+  </si>
+  <si>
+    <t>Tanenbaum, Andrew</t>
+  </si>
+  <si>
+    <t>Computer Vision, A Modern Approach</t>
+  </si>
+  <si>
+    <t>What happened? What we have here is basically a solid and plausible premise and with a decent and talented cast, but somewhere the movie loses it. Actually, it never really got going. There was a little excitement when we find out that Angie is not really pregnant, then find out that she is after al</t>
+  </si>
+  <si>
+    <t>Forsyth, David</t>
+  </si>
+  <si>
+    <t>Principles of Communication Systems</t>
+  </si>
+  <si>
+    <t>I've just watched Fingersmith, and I'm stunned to see the 8/10 average rating for the show.  Not only was the plot was difficult to follow, but it seems character development was randomly applied.  The actors were adequate, but in the process of attempting to create twists and tu</t>
+  </si>
+  <si>
+    <t>Taub, Schilling</t>
+  </si>
+  <si>
+    <t>Let Us C</t>
+  </si>
+  <si>
+    <t>So let's begin!)))  The movie itself is as original as Cronenberg's movies would usually appear...  My intention to see it was certainly JJL being one of my favourite actresses. She is as lovely as usual, this cutie!  I would not say it was my favourite movie of hers. S</t>
+  </si>
+  <si>
+    <t>Kanetkar, Yashwant</t>
+  </si>
+  <si>
+    <t>Amulet of Samarkand, The</t>
+  </si>
+  <si>
+    <t>Besides being boring, the scenes were oppressive and dark. The movie tried to portray some kind of moral, but fell flat with its message. What were the redeeming qualities?? On top of that, I don't think it could make librarians look any more unglamorous than it did.</t>
+  </si>
+  <si>
+    <t>Stroud, Jonathan</t>
+  </si>
+  <si>
+    <t>Crime and Punishment</t>
+  </si>
+  <si>
+    <t>An unmarried woman named Stella (Bette Midler) gets pregnant by a wealthy man (Stephen Collins). He offers to marry her out of a sense of obligation but she turns him down flat and decides to raise the kid on her own. Things go OK until the child named Jenny (Trini Alvarado) becomes a teenager and t</t>
+  </si>
+  <si>
+    <t>Dostoevsky, Fyodor</t>
+  </si>
+  <si>
+    <t>Angels &amp; Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DON'T TORTURE A DUCKLING is one of Fulci's earlier (and honestly, in terms of story-line, better...) films - and although not the typical "bloodbath" that Fulci is known for - this is still a very unique and enjoyable film.  The story surrounds a small town where a series of child murders </t>
+  </si>
+  <si>
+    <t>Brown, Dan</t>
+  </si>
+  <si>
+    <t>Argumentative Indian, The</t>
+  </si>
+  <si>
+    <t>Busty beauty Stacie Randall plays PVC clad, bad-ass bitch Alexandra, the faithful acolyte of Faust, an evil entity trapped in hell. Determined to free her master, the malevolent minx breaks into a warehouse to steal a magical gem vital to her success; but whilst conducting a satanic ritual to summon</t>
+  </si>
+  <si>
+    <t>Sen, Amartya</t>
+  </si>
+  <si>
+    <t>Sea of Poppies</t>
+  </si>
+  <si>
+    <t>I really like Salman Kahn so I was really disappointed when I seen this movie. It didn't have much of a plot and what they did have was not that appealing. Salman however did look good in the movie looked young and refreshed but was worth the price of this DVD. The music was not bad it was quite nic</t>
+  </si>
+  <si>
+    <t>Ghosh, Amitav</t>
+  </si>
+  <si>
+    <t>Idea of Justice, The</t>
+  </si>
+  <si>
+    <t>I'm not sure why the producers needed to trade on the name of a somewhat successful movie franchise because the title suggests that it is a sequel to the first three movies..which it is not. Even though Marques Houston did appear in "HP3", he played a totally different character (he was, eight years</t>
+  </si>
+  <si>
+    <t>Raisin in the Sun, A</t>
+  </si>
+  <si>
+    <t>This film laboured along with some of the most predictable story lines and shallow characters ever seen. The writer obviously bought the playbook "How to write a space disaster movie" and followed it play by play. In particular, the stereo-typical use of astronauts talking to their loved ones from o</t>
+  </si>
+  <si>
+    <t>Hansberry, Lorraine</t>
+  </si>
+  <si>
+    <t>All the President's Men</t>
+  </si>
+  <si>
+    <t>Caddyshack Two is a good movie by itself but compared to the original it cant stack up. Robert Stack is a horrible replacement for Ted Knight and Jackie Mason, while funny just cant compete with Rodney Dangerfield. Ty Webb is funny, being the only character from the original. Most of the other chara</t>
+  </si>
+  <si>
+    <t>Woodward, Bob</t>
+  </si>
+  <si>
+    <t>Prisoner of Birth, A</t>
+  </si>
+  <si>
+    <t>Honestly - this short film sucks. the dummy used in the necro scene is pretty well made but still phony enough looking to ruin the viewing experience. the Unearthed DVD is crisp and clear and I haven't made up my mind if this helps or hinders it. If the film was a little grainy it might have added s</t>
+  </si>
+  <si>
+    <t>Scoop!</t>
+  </si>
+  <si>
+    <t>I thought that Mukhsin has been wonderfully written. Its not just about entertainment. There's tonnes of subtle messages that i think Yasmin was trying to bring across. And yes, it might be confusing to some of you(especially if you didn't watch Sepet and/or Gubra for 76 times).  I bet u n</t>
+  </si>
+  <si>
+    <t>Nayar, Kuldip</t>
+  </si>
+  <si>
+    <t>Ahe Manohar Tari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am not a golf fan by any means. On May 26 about 10:30 PM the movie started with a scene in the late 1800's. Old movies I like but not golf however, within the first scene a young boy (Harry Vardon) is awaken by the voices of men. He goes outside to inquire what they are doing and is told they are </t>
+  </si>
+  <si>
+    <t>Deshpande, Sunita</t>
+  </si>
+  <si>
+    <t>Last Mughal, The</t>
+  </si>
+  <si>
+    <t>Upon viewing Tobe Hooper's gem, Crocodile, in 2000, I developed a great interest in the college/crocodile niche of the exploitation/monster genre. I look forward to a wayward producer to follow up with several sequels to these delightful bonbons of camp goodness. If only Ed Wood could bring his subt</t>
+  </si>
+  <si>
+    <t>Dalrymple, William</t>
+  </si>
+  <si>
+    <t>Social Choice &amp; Welfare, Vol 39 No. 1</t>
+  </si>
+  <si>
+    <t>It tries to be the epic adventure of the century. And with a cast like ShÃ´ Kasugi, Christopher Lee and John-Rhys Davies it really is the perfect B-adventure of all time. It's actually is a pretty fun, swashbuckling adventure that, even with it's flaws, captures your interest. It must have felt as t</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Radiowaril Bhashane &amp; Shrutika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Last Hard Men finds James Coburn an outlaw doing a long sentence breaking free from a chain gang. Do he and his friends head for the Mexican border from jail and safety. No they don't because Coburn has a mission of revenge. To kill the peace officer who brought him in and in the process killed </t>
+  </si>
+  <si>
+    <t>Gun Gayin Awadi</t>
+  </si>
+  <si>
+    <t>Maybe it was the title, or the trailer (certainly not the interview on the DVD, which is with the director as he keeps saying "hi, kids" into the camera like a buffoon), but I had expectations for Entrails of a Virgin to be at least a bit of sleazy fun with some good sex scenes and brutal, bloody ki</t>
+  </si>
+  <si>
+    <t>Aghal Paghal</t>
+  </si>
+  <si>
+    <t>The few scenes that actually attempt a depiction of revolutionary struggle resemble a hirsute Boy Scout troop meandering tentatively between swimming holes. When Sharif or, please God, Palance try their hand at fiery oratory, they sound like Kurtz swallowing a bug. The displays of strategic brillian</t>
+  </si>
+  <si>
+    <t>Maqta-e-Ghalib</t>
+  </si>
+  <si>
+    <t>This film took me by surprise. I make it a habit of finding out as little as possible about films before attending because trailers and reviews provide spoiler after spoiler. All I knew upon entering the theater is that it was a documentary about a long married couple and that IMDb readers gave it a</t>
+  </si>
+  <si>
+    <t>Garg, Sanjay</t>
+  </si>
+  <si>
+    <t>Beyond Degrees</t>
+  </si>
+  <si>
+    <t>Stephen Hawkings is a genius. He is the king of geniuses. Watching this movie makes me feel dumb. But it's a great movie. Not highly entertaining, but very very intriguing. The movie centers around wheelchair bound Stephen Hawkings, a man who makes Einstein look average, and his theories and scienti</t>
+  </si>
+  <si>
+    <t>Thao</t>
+  </si>
+  <si>
+    <t>Manasa</t>
+  </si>
+  <si>
+    <t>The story is about a psychic woman, Tory, who returns to her hometown and begins reliving her traumatic childhood past (the death of her childhood friend and abusive father). Tory discovers that her friend was just the first in a string of murders that are still occurring. Can her psychic powers hel</t>
+  </si>
+  <si>
+    <t>Kale, V P</t>
+  </si>
+  <si>
+    <t>India from Midnight to Milennium</t>
+  </si>
+  <si>
+    <t>Oh God, I must have seen this when I was only 11 or twelve, (don't ask how) I may have been young, but I wasn't stupid. Anyone could see that this is a bad movie, nasty, gross, unscary and very silly. I've seen more impressive effects at Disneyland, I've seen better performances at a school play, An</t>
+  </si>
+  <si>
+    <t>Tharoor, Shashi</t>
+  </si>
+  <si>
+    <t>World's Greatest Trials, The</t>
+  </si>
+  <si>
+    <t>Fate leads Walter Sparrow to come in possession of a mysterious novel that has eerie similarities and connections to his life, all based around the number 23. As the story unfolds in real life and fiction, Sparrow must figure out his connection to the book and how the story will eventually end.&lt;br</t>
+  </si>
+  <si>
+    <t>Great Indian Novel, The</t>
+  </si>
+  <si>
+    <t>We brought this film as a joke for a friend, and could of been our worst joke to play. The film is barely watchable, and the acting is dire. The worst child actor ever used and Hasslehoff giving a substandard performance. The plot is disgraceful and at points we was so bored we was wondering what th</t>
+  </si>
+  <si>
+    <t>O Jerusalem!</t>
+  </si>
+  <si>
+    <t>This was probably the worst movie i have ever seen in my life!! It was stupid there was no plot and the special affects were ridiculous!! And i have never seen such bad acting in my life! The only good part about the movie were all the hot guys(especially Drew Fuller). I don't know what these people</t>
+  </si>
+  <si>
+    <t>Lapierre, Dominique</t>
+  </si>
+  <si>
+    <t>City of Joy, The</t>
+  </si>
+  <si>
+    <t>This is a typical Steele novel production in that two people who have undergone some sort of tragedy manage to get together despite the odds. I wouldn't call this a spoiler because anyone who has read a Steele novel knows how they ALL end. If you don't want to know much about the plot, don't keep re</t>
+  </si>
+  <si>
+    <t>Freedom at Midnight</t>
+  </si>
+  <si>
+    <t>Oh noes one of these attack of the Japanese ghost girl movies... i don't even remember how many i've seen. maybe it sells... but not to me. not scary at all. the japanese horror movies are have been very similar since the first one of these... also the pulling of the kid. i have seen that pulled und</t>
+  </si>
+  <si>
+    <t>Winter of Our Discontent, The</t>
+  </si>
+  <si>
+    <t>Nicholas Walker is Paul, the local town Reverand who's married to Martha (Ally Sheedy), but also is a habitual womanizer and decides to fake his own death to run away with his current affair, Veronica (Dara Tomanovich). However in so doing, he gets a bout of amnesia (hence the name of the film). Sal</t>
+  </si>
+  <si>
+    <t>On Education</t>
+  </si>
+  <si>
+    <t>Hollywood movie industry is the laziest one in the entire world. It only needs a single hit to flood theaters with the same old crap re-invented over and over again. Take superheroes for example, for each X-Man and Spiderman, there are Daredevil, Elektra, Ghost Rider and Hulk. Japanese horror remake</t>
+  </si>
+  <si>
+    <t>Russell, Bertrand</t>
+  </si>
+  <si>
+    <t>Free Will</t>
+  </si>
+  <si>
+    <t>Down Periscope has been in our library since it first arrived in VHS. Since then, we have acquired the DVD and a digital from Cinema Now.  It is a quirky flick that does not go militarily overboard as either pro or con. It is first and foremost a comedy and as a vehicle for the main char</t>
+  </si>
+  <si>
+    <t>Harris, Sam</t>
+  </si>
+  <si>
+    <t>Bookless in Baghdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you came here, it's because you've already seen this film and were curious what others had to say about it.  I feel for you, I *really* do. And I profusely apologize as a Canadian (because that's what we do) that this film ever had to cross your eyes, if only for a moment. I hear there </t>
+  </si>
+  <si>
+    <t>Case of the Lame Canary, The</t>
+  </si>
+  <si>
+    <t>Deanna Durbin, Nan Grey and Barbara Read are "Three Smart Girls" in this Universal film from 1936, which introduces Deanna Durbin to film audiences. It also stars Ray Milland, Mischa Auer, Charles Winninger, John King, Binnie Barnes and Alice Brady. It's a sweet story about three young women, now li</t>
+  </si>
+  <si>
+    <t>Gardner, Earle Stanley</t>
+  </si>
+  <si>
+    <t>Theory of Everything, The</t>
+  </si>
+  <si>
+    <t>If anyone is wondering why no one makes movies like they used to, with conversation, character and a simple theme of friendship struggling to evolve into something new, better and different, those folks need to take in this film and see top notch writing, directing, and acting that melds into a wond</t>
+  </si>
+  <si>
+    <t>New Markets &amp; Other Essays</t>
+  </si>
+  <si>
+    <t>I watched this series out of curiosity,wanting to see if they could possibly and with ALL this modern technology,out do Cecil B. DeMille's classic epic of 1956, starring Charleton Heston,Yul Brenner and Sir Cedric Hardwicke. Of course, I was let down. Yes, they had all the Biblical characters correc</t>
+  </si>
+  <si>
+    <t>Drucker, Peter</t>
+  </si>
+  <si>
+    <t>Electric Universe</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis is the most versatile actor alive. English aristocratic snob in A Room With a View, passionate Irish thief in In the Name of the Father, an impudent, violent butcher in Gangs of New York (in a performance ten times stronger than Adrian Brody's in the Pianist) and as the outrageous C</t>
+  </si>
+  <si>
+    <t>Bodanis, David</t>
+  </si>
+  <si>
+    <t>Hunchback of Notre Dame, The</t>
+  </si>
+  <si>
+    <t>My guess would be this was originally going to be at least two parts, and thus at least a quarter longer, because otherwise how can one explain its confused, abbreviated storyline. I was never completely lost, but I was often partially lost and usually unclear on character motivation. The movie feel</t>
+  </si>
+  <si>
+    <t>Hugo, Victor</t>
+  </si>
+  <si>
+    <t>Burning Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, I like to watch bad horror B-Movies, cause I think it's interesting to see stupidity and unability of creators to shoot seriously good movie. (I always compare this movies to - for example - some Spielberg's works and again-and-again don't understand the huge difference in what I see.) I like </t>
+  </si>
+  <si>
+    <t>Age of Discontuinity, The</t>
+  </si>
+  <si>
+    <t>This IS the worst movie I have ever seen, as well as, the worst that I will probably EVER see. I see no need to rehash what all the others have said previously, just be forewarned...  This IS NOT one of those bad movies you think you want to watch because you want to be able to make fun of</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,6 +969,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -136,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +1052,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +1104,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,11 +1296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>9785468555330</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -414,41 +1331,2565 @@
         <v>3</v>
       </c>
       <c r="F1">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="G1">
-        <v>11</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>9785468555331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>235</v>
+      </c>
+      <c r="G2">
+        <v>54.1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>9785468555332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>197</v>
+      </c>
+      <c r="G3">
+        <v>29.6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>9785468555333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>179</v>
+      </c>
+      <c r="G4">
+        <v>47.7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>9785468555334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>197</v>
+      </c>
+      <c r="G5">
+        <v>27.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>9785468555335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>230</v>
+      </c>
+      <c r="G6">
+        <v>64.8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>9785468555336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>217</v>
+      </c>
+      <c r="G7">
+        <v>41.2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>9785468555337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>197</v>
+      </c>
+      <c r="G8">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>9785468555338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>241</v>
+      </c>
+      <c r="G9">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9785468555339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>240</v>
+      </c>
+      <c r="G10">
+        <v>29.9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>9785468555340</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>230</v>
+      </c>
+      <c r="G11">
+        <v>88.1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9785468555341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>198</v>
+      </c>
+      <c r="G12">
+        <v>92.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>9785468555342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>234</v>
+      </c>
+      <c r="G13">
+        <v>61.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>9785468555343</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>240</v>
+      </c>
+      <c r="G14">
+        <v>92.9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>9785468555344</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>238</v>
+      </c>
+      <c r="G15">
+        <v>71.3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>9785468555345</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>198</v>
+      </c>
+      <c r="G16">
+        <v>90.9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>9785468555346</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>236</v>
+      </c>
+      <c r="G17">
+        <v>21.4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>9785468555347</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>242</v>
+      </c>
+      <c r="G18">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>9785468555348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <v>180</v>
+      </c>
+      <c r="G19">
+        <v>84.6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>9785468555349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <v>197</v>
+      </c>
+      <c r="G20">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>9785468555350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>232</v>
+      </c>
+      <c r="G21">
+        <v>30.7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>9785468555351</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>248</v>
+      </c>
+      <c r="G22">
+        <v>84.2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>9785468555352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23">
+        <v>233</v>
+      </c>
+      <c r="G23">
+        <v>33.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>9785468555353</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <v>233</v>
+      </c>
+      <c r="G24">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>9785468555354</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25">
+        <v>233</v>
+      </c>
+      <c r="G25">
+        <v>88.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>9785468555355</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26">
+        <v>234</v>
+      </c>
+      <c r="G26">
+        <v>76.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>9785468555356</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27">
+        <v>198</v>
+      </c>
+      <c r="G27">
+        <v>12.6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>9785468555357</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28">
+        <v>198</v>
+      </c>
+      <c r="G28">
+        <v>14.3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>9785468555358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29">
+        <v>176</v>
+      </c>
+      <c r="G29">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>9785468555359</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30">
+        <v>176</v>
+      </c>
+      <c r="G30">
+        <v>65.8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>9785468555360</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31">
+        <v>175</v>
+      </c>
+      <c r="G31">
+        <v>25.8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>9785468555361</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32">
+        <v>176</v>
+      </c>
+      <c r="G32">
+        <v>73.2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>9785468555362</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33">
+        <v>212</v>
+      </c>
+      <c r="G33">
+        <v>59.7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>9785468555363</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34">
+        <v>179</v>
+      </c>
+      <c r="G34">
+        <v>62.3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>9785468555364</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35">
+        <v>198</v>
+      </c>
+      <c r="G35">
+        <v>92.5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>9785468555365</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36">
+        <v>179</v>
+      </c>
+      <c r="G36">
+        <v>73.8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>9785468555366</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37">
+        <v>177</v>
+      </c>
+      <c r="G37">
+        <v>93.4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>9785468555367</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38">
+        <v>177</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>9785468555368</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39">
+        <v>197</v>
+      </c>
+      <c r="G39">
+        <v>16.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>9785468555369</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40">
+        <v>202</v>
+      </c>
+      <c r="G40">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>9785468555370</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41">
+        <v>174</v>
+      </c>
+      <c r="G41">
+        <v>85.2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>9785468555371</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42">
+        <v>196</v>
+      </c>
+      <c r="G42">
+        <v>66.5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>9785468555372</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43">
+        <v>172</v>
+      </c>
+      <c r="G43">
+        <v>58.1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>9785468555373</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>197</v>
+      </c>
+      <c r="G44">
+        <v>11.9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>9785468555374</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45">
+        <v>197</v>
+      </c>
+      <c r="G45">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>9785468555375</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46">
+        <v>170</v>
+      </c>
+      <c r="G46">
+        <v>69.2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>9785468555376</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47">
+        <v>205</v>
+      </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>9785468555377</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48">
+        <v>196</v>
+      </c>
+      <c r="G48">
+        <v>93.2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>9785468555378</v>
+      </c>
+      <c r="C49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49">
+        <v>196</v>
+      </c>
+      <c r="G49">
+        <v>59.1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>9785468555379</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50">
+        <v>196</v>
+      </c>
+      <c r="G50">
+        <v>71.5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>9785468555380</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51">
+        <v>174</v>
+      </c>
+      <c r="G51">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>9785468555381</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52">
+        <v>196</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53">
+        <v>9785468555382</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53">
+        <v>178</v>
+      </c>
+      <c r="G53">
+        <v>98.5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>9785468555383</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54">
+        <v>178</v>
+      </c>
+      <c r="G54">
+        <v>29.8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>9785468555384</v>
+      </c>
+      <c r="C55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55">
+        <v>197</v>
+      </c>
+      <c r="G55">
+        <v>95.4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>9785468555385</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56">
+        <v>242</v>
+      </c>
+      <c r="G56">
+        <v>48.4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>9785468555386</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57">
+        <v>242</v>
+      </c>
+      <c r="G57">
+        <v>62.7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>9785468555387</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58">
+        <v>242</v>
+      </c>
+      <c r="G58">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>9785468555388</v>
+      </c>
+      <c r="C59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59">
+        <v>232</v>
+      </c>
+      <c r="G59">
+        <v>60.2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>9785468555389</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60">
+        <v>235</v>
+      </c>
+      <c r="G60">
+        <v>61.4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61">
+        <v>9785468555390</v>
+      </c>
+      <c r="C61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61">
+        <v>255</v>
+      </c>
+      <c r="G61">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62">
+        <v>9785468555391</v>
+      </c>
+      <c r="C62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62">
+        <v>240</v>
+      </c>
+      <c r="G62">
+        <v>99.8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <v>9785468555392</v>
+      </c>
+      <c r="C63" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63">
+        <v>213</v>
+      </c>
+      <c r="G63">
+        <v>82.5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>9785468555393</v>
+      </c>
+      <c r="C64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64">
+        <v>179</v>
+      </c>
+      <c r="G64">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>9785468555394</v>
+      </c>
+      <c r="C65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65">
+        <v>180</v>
+      </c>
+      <c r="G65">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>9785468555395</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66">
+        <v>178</v>
+      </c>
+      <c r="G66">
+        <v>94.6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>9785468555396</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67">
+        <v>209</v>
+      </c>
+      <c r="G67">
+        <v>41.8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68">
+        <v>9785468555397</v>
+      </c>
+      <c r="C68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68">
+        <v>197</v>
+      </c>
+      <c r="G68">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>9785468555398</v>
+      </c>
+      <c r="C69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69">
+        <v>212</v>
+      </c>
+      <c r="G69">
+        <v>80.7</v>
+      </c>
+      <c r="H69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>9785468555399</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70">
+        <v>175</v>
+      </c>
+      <c r="G70">
+        <v>49.6</v>
+      </c>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71">
+        <v>9785468555400</v>
+      </c>
+      <c r="C71" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71">
+        <v>177</v>
+      </c>
+      <c r="G71">
+        <v>74.2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72">
+        <v>9785468555401</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72">
+        <v>176</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>9785468555402</v>
+      </c>
+      <c r="C73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" t="s">
+        <v>230</v>
+      </c>
+      <c r="F73">
+        <v>216</v>
+      </c>
+      <c r="G73">
+        <v>90.8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>9785468555403</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" t="s">
+        <v>233</v>
+      </c>
+      <c r="F74">
+        <v>213</v>
+      </c>
+      <c r="G74">
+        <v>93.3</v>
+      </c>
+      <c r="H74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>9785468555404</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75">
+        <v>199</v>
+      </c>
+      <c r="G75">
+        <v>13.6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>9785468555405</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76">
+        <v>235</v>
+      </c>
+      <c r="G76">
+        <v>10.5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77">
+        <v>9785468555406</v>
+      </c>
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77">
+        <v>213</v>
+      </c>
+      <c r="G77">
+        <v>94.6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>9785468555407</v>
+      </c>
+      <c r="C78" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78">
+        <v>212</v>
+      </c>
+      <c r="G78">
+        <v>76.3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>9785468555408</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79">
+        <v>212</v>
+      </c>
+      <c r="G79">
+        <v>21.1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80">
+        <v>9785468555409</v>
+      </c>
+      <c r="C80" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80">
+        <v>221</v>
+      </c>
+      <c r="G80">
+        <v>56.2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>9785468555410</v>
+      </c>
+      <c r="C81" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81">
+        <v>222</v>
+      </c>
+      <c r="G81">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>9785468555411</v>
+      </c>
+      <c r="C82" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" t="s">
+        <v>254</v>
+      </c>
+      <c r="F82">
+        <v>213</v>
+      </c>
+      <c r="G82">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>9785468555412</v>
+      </c>
+      <c r="C83" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" t="s">
+        <v>257</v>
+      </c>
+      <c r="F83">
+        <v>198</v>
+      </c>
+      <c r="G83">
+        <v>29.9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>9785468555413</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" t="s">
+        <v>251</v>
+      </c>
+      <c r="F84">
+        <v>210</v>
+      </c>
+      <c r="G84">
+        <v>57.2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>9785468555414</v>
+      </c>
+      <c r="C85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85">
+        <v>198</v>
+      </c>
+      <c r="G85">
+        <v>57.1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>9785468555415</v>
+      </c>
+      <c r="C86" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" t="s">
+        <v>264</v>
+      </c>
+      <c r="F86">
+        <v>217</v>
+      </c>
+      <c r="G86">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87">
+        <v>9785468555416</v>
+      </c>
+      <c r="C87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
+      <c r="F87">
+        <v>177</v>
+      </c>
+      <c r="G87">
+        <v>23.1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>9785468555417</v>
+      </c>
+      <c r="C88" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" t="s">
+        <v>264</v>
+      </c>
+      <c r="F88">
+        <v>167</v>
+      </c>
+      <c r="G88">
+        <v>59.8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89">
+        <v>9785468555418</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89">
+        <v>196</v>
+      </c>
+      <c r="G89">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90">
+        <v>9785468555419</v>
+      </c>
+      <c r="C90" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+      <c r="E90" t="s">
+        <v>273</v>
+      </c>
+      <c r="F90">
+        <v>203</v>
+      </c>
+      <c r="G90">
+        <v>62.2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>9785468555420</v>
+      </c>
+      <c r="C91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" t="s">
+        <v>276</v>
+      </c>
+      <c r="F91">
+        <v>203</v>
+      </c>
+      <c r="G91">
+        <v>35.5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>9785468555421</v>
+      </c>
+      <c r="C92" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" t="s">
+        <v>257</v>
+      </c>
+      <c r="F92">
+        <v>206</v>
+      </c>
+      <c r="G92">
+        <v>68.5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>9785468555422</v>
+      </c>
+      <c r="C93" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" t="s">
+        <v>281</v>
+      </c>
+      <c r="F93">
+        <v>179</v>
+      </c>
+      <c r="G93">
+        <v>34.1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>9785468555423</v>
+      </c>
+      <c r="C94" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>217</v>
+      </c>
+      <c r="G94">
+        <v>24.8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95">
+        <v>9785468555424</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95">
+        <v>176</v>
+      </c>
+      <c r="G95">
+        <v>69</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96">
+        <v>9785468555425</v>
+      </c>
+      <c r="C96" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" t="s">
+        <v>288</v>
+      </c>
+      <c r="E96" t="s">
+        <v>289</v>
+      </c>
+      <c r="F96">
+        <v>201</v>
+      </c>
+      <c r="G96">
+        <v>48.3</v>
+      </c>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>9785468555426</v>
+      </c>
+      <c r="C97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" t="s">
+        <v>291</v>
+      </c>
+      <c r="E97" t="s">
+        <v>292</v>
+      </c>
+      <c r="F97">
+        <v>175</v>
+      </c>
+      <c r="G97">
+        <v>30.7</v>
+      </c>
+      <c r="H97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98">
+        <v>9785468555427</v>
+      </c>
+      <c r="C98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98">
+        <v>175</v>
+      </c>
+      <c r="G98">
+        <v>77.7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99">
+        <v>9785468555428</v>
+      </c>
+      <c r="C99" t="s">
+        <v>295</v>
+      </c>
+      <c r="D99" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99">
+        <v>178</v>
+      </c>
+      <c r="G99">
+        <v>98</v>
+      </c>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>